--- a/Assets/Data/Table/Convert/Condition_ConditionGroup.xlsx
+++ b/Assets/Data/Table/Convert/Condition_ConditionGroup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD59C226-E181-499D-959F-88FE7FC69340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8B4843-3B85-42B0-B55D-115C0366958A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46188" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConditionGroup" sheetId="12" r:id="rId1"/>
@@ -70,25 +70,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ConditionTarget_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#비교 연산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum.Target.
-TargetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum.Unit.
-OpType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -374,6 +360,17 @@
     <t>SkillStep:Player_Blink_Lv2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>TargetFilter_ID</t>
+  </si>
+  <si>
+    <t>Tb.Target
+TargetFilter</t>
+  </si>
+  <si>
+    <t>Em.Unit.
+OpType</t>
+  </si>
 </sst>
 </file>
 
@@ -419,7 +416,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,6 +501,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -558,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -716,6 +719,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1007,75 +1016,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8517A791-5352-4465-B542-1BEA61D3ED59}">
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="65.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.09765625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="17.75" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.3984375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.69921875" style="9" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.75" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.69921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.3984375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="17.69921875" style="8" customWidth="1"/>
     <col min="11" max="11" width="18.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="9" customWidth="1"/>
-    <col min="14" max="14" width="17.75" style="8" customWidth="1"/>
+    <col min="12" max="12" width="29.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.3984375" style="9" customWidth="1"/>
+    <col min="14" max="14" width="17.69921875" style="8" customWidth="1"/>
     <col min="15" max="15" width="19" style="14" customWidth="1"/>
     <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="5" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="5" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="F1" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="75" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="75" t="s">
+      <c r="I1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="K1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="L1" s="71" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M1" s="71" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N1" s="71" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O1" s="71" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
@@ -1085,36 +1092,36 @@
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
     </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="76" t="s">
-        <v>6</v>
+      <c r="C2" s="81" t="s">
+        <v>88</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2" s="77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="76" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="G2" s="78" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="K2" s="70" t="s">
         <v>1</v>
@@ -1123,31 +1130,31 @@
         <v>1</v>
       </c>
       <c r="M2" s="73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" s="72" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="O2" s="74" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="str">
         <f>B3&amp;":"&amp;IF(ISBLANK(D3),H3&amp;":"&amp;K3,D3&amp;":"&amp;G3)</f>
         <v>Input_Command:Player_MoveLeft:CurrentState:Idle</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F3" s="20" t="str" cm="1">
         <f t="array" ref="F3">IFERROR(
@@ -1171,10 +1178,10 @@
         <v>Equal</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I3" s="19"/>
       <c r="J3" s="20" t="str" cm="1">
@@ -1199,10 +1206,10 @@
         <v>#</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M3" s="19"/>
       <c r="N3" s="20" t="str" cm="1">
@@ -1227,25 +1234,25 @@
         <v>#</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="str">
         <f t="shared" ref="A4:A75" si="0">B4&amp;":"&amp;IF(ISBLANK(D4),H4&amp;":"&amp;K4,D4&amp;":"&amp;G4)</f>
         <v>Input_Command:Player_MoveLeft:CurrentState:Move</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F4" s="20" t="str" cm="1">
         <f t="array" ref="F4">IFERROR(
@@ -1269,10 +1276,10 @@
         <v>Equal</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I4" s="19"/>
       <c r="J4" s="20" t="str" cm="1">
@@ -1297,10 +1304,10 @@
         <v>#</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M4" s="19"/>
       <c r="N4" s="20" t="str" cm="1">
@@ -1325,25 +1332,25 @@
         <v>#</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_MoveRight:CurrentState:Idle</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F5" s="20" t="str" cm="1">
         <f t="array" ref="F5">IFERROR(
@@ -1367,10 +1374,10 @@
         <v>Equal</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I5" s="19"/>
       <c r="J5" s="20" t="str" cm="1">
@@ -1395,10 +1402,10 @@
         <v>#</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M5" s="19"/>
       <c r="N5" s="20" t="str" cm="1">
@@ -1423,25 +1430,25 @@
         <v>#</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_MoveRight:CurrentState:Move</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F6" s="20" t="str" cm="1">
         <f t="array" ref="F6">IFERROR(
@@ -1465,10 +1472,10 @@
         <v>Equal</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="20" t="str" cm="1">
@@ -1493,10 +1500,10 @@
         <v>#</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="20" t="str" cm="1">
@@ -1521,25 +1528,25 @@
         <v>#</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_MoveLeft_Crouch:CurrentState:Idle_Crouch</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F7" s="26" t="str" cm="1">
         <f t="array" ref="F7">IFERROR(
@@ -1563,10 +1570,10 @@
         <v>Equal</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I7" s="25"/>
       <c r="J7" s="26" t="str" cm="1">
@@ -1591,10 +1598,10 @@
         <v>#</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M7" s="25"/>
       <c r="N7" s="26" t="str" cm="1">
@@ -1619,25 +1626,25 @@
         <v>#</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_MoveLeft_Crouch:CurrentState:Move_Crouch</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F8" s="26" t="str" cm="1">
         <f t="array" ref="F8">IFERROR(
@@ -1661,10 +1668,10 @@
         <v>Equal</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I8" s="25"/>
       <c r="J8" s="26" t="str" cm="1">
@@ -1689,10 +1696,10 @@
         <v>#</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="26" t="str" cm="1">
@@ -1717,25 +1724,25 @@
         <v>#</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_MoveRight_Crouch:CurrentState:Idle_Crouch</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F9" s="26" t="str" cm="1">
         <f t="array" ref="F9">IFERROR(
@@ -1759,10 +1766,10 @@
         <v>Equal</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I9" s="25"/>
       <c r="J9" s="26" t="str" cm="1">
@@ -1787,10 +1794,10 @@
         <v>#</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M9" s="25"/>
       <c r="N9" s="26" t="str" cm="1">
@@ -1815,25 +1822,25 @@
         <v>#</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_MoveRight_Crouch:CurrentState:Move_Crouch</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F10" s="26" t="str" cm="1">
         <f t="array" ref="F10">IFERROR(
@@ -1857,10 +1864,10 @@
         <v>Equal</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I10" s="25"/>
       <c r="J10" s="26" t="str" cm="1">
@@ -1885,10 +1892,10 @@
         <v>#</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M10" s="25"/>
       <c r="N10" s="26" t="str" cm="1">
@@ -1913,25 +1920,25 @@
         <v>#</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_Jump:CurrentState:Idle</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F11" s="32" t="str" cm="1">
         <f t="array" ref="F11">IFERROR(
@@ -1955,10 +1962,10 @@
         <v>Equal</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I11" s="31"/>
       <c r="J11" s="32" t="str" cm="1">
@@ -1983,10 +1990,10 @@
         <v>#</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M11" s="31"/>
       <c r="N11" s="32" t="str" cm="1">
@@ -2011,25 +2018,25 @@
         <v>#</v>
       </c>
       <c r="O11" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_Jump:CurrentState:Move</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F12" s="32" t="str" cm="1">
         <f t="array" ref="F12">IFERROR(
@@ -2053,10 +2060,10 @@
         <v>Equal</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="32" t="str" cm="1">
@@ -2081,10 +2088,10 @@
         <v>#</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M12" s="31"/>
       <c r="N12" s="32" t="str" cm="1">
@@ -2109,25 +2116,25 @@
         <v>#</v>
       </c>
       <c r="O12" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_Jump:CurrentState:Idle_Crouch</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F13" s="32" t="str" cm="1">
         <f t="array" ref="F13">IFERROR(
@@ -2151,10 +2158,10 @@
         <v>Equal</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I13" s="31"/>
       <c r="J13" s="32" t="str" cm="1">
@@ -2179,10 +2186,10 @@
         <v>#</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L13" s="30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M13" s="31"/>
       <c r="N13" s="32" t="str" cm="1">
@@ -2207,25 +2214,25 @@
         <v>#</v>
       </c>
       <c r="O13" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_Jump:CurrentState:Move_Crouch</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F14" s="32" t="str" cm="1">
         <f t="array" ref="F14">IFERROR(
@@ -2249,10 +2256,10 @@
         <v>Equal</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I14" s="31"/>
       <c r="J14" s="32" t="str" cm="1">
@@ -2277,10 +2284,10 @@
         <v>#</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M14" s="31"/>
       <c r="N14" s="32" t="str" cm="1">
@@ -2305,25 +2312,25 @@
         <v>#</v>
       </c>
       <c r="O14" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_Jump:CurrentState:Hang</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F15" s="32" t="str" cm="1">
         <f t="array" ref="F15">IFERROR(
@@ -2347,10 +2354,10 @@
         <v>Equal</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I15" s="31"/>
       <c r="J15" s="32" t="str" cm="1">
@@ -2375,10 +2382,10 @@
         <v>#</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L15" s="30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M15" s="31"/>
       <c r="N15" s="32" t="str" cm="1">
@@ -2403,25 +2410,25 @@
         <v>#</v>
       </c>
       <c r="O15" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_DoubleJump:CurrentState:Jump</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F16" s="38" t="str" cm="1">
         <f t="array" ref="F16">IFERROR(
@@ -2445,10 +2452,10 @@
         <v>Equal</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I16" s="37"/>
       <c r="J16" s="38" t="str" cm="1">
@@ -2473,10 +2480,10 @@
         <v>#</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M16" s="37"/>
       <c r="N16" s="38" t="str" cm="1">
@@ -2501,25 +2508,25 @@
         <v>#</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_DiveBelow:CurrentState:Idle</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F17" s="44" t="str" cm="1">
         <f t="array" ref="F17">IFERROR(
@@ -2543,22 +2550,22 @@
         <v>Equal</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J17" s="44" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K17" s="41" t="b">
         <v>0</v>
       </c>
       <c r="L17" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M17" s="43"/>
       <c r="N17" s="44" t="str" cm="1">
@@ -2583,25 +2590,25 @@
         <v>#</v>
       </c>
       <c r="O17" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_DiveBelow:CurrentState:Move</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F18" s="44" t="str" cm="1">
         <f t="array" ref="F18">IFERROR(
@@ -2625,22 +2632,22 @@
         <v>Equal</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I18" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J18" s="44" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K18" s="41" t="b">
         <v>0</v>
       </c>
       <c r="L18" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M18" s="43"/>
       <c r="N18" s="44" t="str" cm="1">
@@ -2665,25 +2672,25 @@
         <v>#</v>
       </c>
       <c r="O18" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_DiveBelow:CurrentState:Idle_Crouch</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F19" s="44" t="str" cm="1">
         <f t="array" ref="F19">IFERROR(
@@ -2707,22 +2714,22 @@
         <v>Equal</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I19" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J19" s="44" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K19" s="41" t="b">
         <v>0</v>
       </c>
       <c r="L19" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M19" s="43"/>
       <c r="N19" s="44" t="str" cm="1">
@@ -2747,25 +2754,25 @@
         <v>#</v>
       </c>
       <c r="O19" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_DiveBelow:CurrentState:Move_Crouch</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F20" s="44" t="str" cm="1">
         <f t="array" ref="F20">IFERROR(
@@ -2789,22 +2796,22 @@
         <v>Equal</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H20" s="42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I20" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J20" s="44" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K20" s="41" t="b">
         <v>0</v>
       </c>
       <c r="L20" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M20" s="43"/>
       <c r="N20" s="44" t="str" cm="1">
@@ -2829,25 +2836,25 @@
         <v>#</v>
       </c>
       <c r="O20" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_DiveSide:CurrentState:Move</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F21" s="44" t="str" cm="1">
         <f t="array" ref="F21">IFERROR(
@@ -2871,22 +2878,22 @@
         <v>Equal</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H21" s="42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I21" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J21" s="44" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K21" s="41" t="b">
         <v>1</v>
       </c>
       <c r="L21" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M21" s="43"/>
       <c r="N21" s="44" t="str" cm="1">
@@ -2911,25 +2918,25 @@
         <v>#</v>
       </c>
       <c r="O21" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_DiveSide:CurrentState:Move_Crouch</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F22" s="44" t="str" cm="1">
         <f t="array" ref="F22">IFERROR(
@@ -2953,22 +2960,22 @@
         <v>Equal</v>
       </c>
       <c r="G22" s="41" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H22" s="42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I22" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J22" s="44" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K22" s="41" t="b">
         <v>1</v>
       </c>
       <c r="L22" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M22" s="43"/>
       <c r="N22" s="44" t="str" cm="1">
@@ -2993,25 +3000,25 @@
         <v>#</v>
       </c>
       <c r="O22" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_DiveSide:CurrentState:Jump</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F23" s="44" t="str" cm="1">
         <f t="array" ref="F23">IFERROR(
@@ -3035,22 +3042,22 @@
         <v>Equal</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I23" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J23" s="44" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K23" s="41" t="b">
         <v>1</v>
       </c>
       <c r="L23" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M23" s="43"/>
       <c r="N23" s="44" t="str" cm="1">
@@ -3075,25 +3082,25 @@
         <v>#</v>
       </c>
       <c r="O23" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_DiveSide:CurrentState:DoubleJump</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F24" s="44" t="str" cm="1">
         <f t="array" ref="F24">IFERROR(
@@ -3117,22 +3124,22 @@
         <v>Equal</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H24" s="42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I24" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J24" s="44" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K24" s="41" t="b">
         <v>1</v>
       </c>
       <c r="L24" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M24" s="43"/>
       <c r="N24" s="44" t="str" cm="1">
@@ -3157,25 +3164,25 @@
         <v>#</v>
       </c>
       <c r="O24" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="40" t="str">
         <f>B25&amp;":"&amp;IF(ISBLANK(D25),H25&amp;":"&amp;K25,D25&amp;":"&amp;G25)</f>
         <v>Input_Command:Player_DiveSide:CurrentState:Hang</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F25" s="44" t="str" cm="1">
         <f t="array" ref="F25">IFERROR(
@@ -3199,22 +3206,22 @@
         <v>Equal</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H25" s="42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I25" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J25" s="44" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K25" s="41" t="b">
         <v>1</v>
       </c>
       <c r="L25" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M25" s="43"/>
       <c r="N25" s="44" t="str" cm="1">
@@ -3239,25 +3246,25 @@
         <v>#</v>
       </c>
       <c r="O25" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_DiveMoveLeft:CurrentState:Dive</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F26" s="44" t="str" cm="1">
         <f t="array" ref="F26">IFERROR(
@@ -3281,10 +3288,10 @@
         <v>Equal</v>
       </c>
       <c r="G26" s="41" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I26" s="43"/>
       <c r="J26" s="44" t="str" cm="1">
@@ -3309,10 +3316,10 @@
         <v>#</v>
       </c>
       <c r="K26" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L26" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M26" s="43"/>
       <c r="N26" s="44" t="str" cm="1">
@@ -3337,25 +3344,25 @@
         <v>#</v>
       </c>
       <c r="O26" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_DiveMoveRight:CurrentState:Dive</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F27" s="44" t="str" cm="1">
         <f t="array" ref="F27">IFERROR(
@@ -3379,10 +3386,10 @@
         <v>Equal</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H27" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I27" s="43"/>
       <c r="J27" s="44" t="str" cm="1">
@@ -3407,10 +3414,10 @@
         <v>#</v>
       </c>
       <c r="K27" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L27" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M27" s="43"/>
       <c r="N27" s="44" t="str" cm="1">
@@ -3435,25 +3442,25 @@
         <v>#</v>
       </c>
       <c r="O27" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_DiveMoveUp:CurrentState:Dive</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F28" s="44" t="str" cm="1">
         <f t="array" ref="F28">IFERROR(
@@ -3477,10 +3484,10 @@
         <v>Equal</v>
       </c>
       <c r="G28" s="41" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H28" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I28" s="43"/>
       <c r="J28" s="44" t="str" cm="1">
@@ -3505,10 +3512,10 @@
         <v>#</v>
       </c>
       <c r="K28" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L28" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M28" s="43"/>
       <c r="N28" s="44" t="str" cm="1">
@@ -3533,25 +3540,25 @@
         <v>#</v>
       </c>
       <c r="O28" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_DiveMoveDown:CurrentState:Dive</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F29" s="44" t="str" cm="1">
         <f t="array" ref="F29">IFERROR(
@@ -3575,10 +3582,10 @@
         <v>Equal</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H29" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I29" s="43"/>
       <c r="J29" s="44" t="str" cm="1">
@@ -3603,10 +3610,10 @@
         <v>#</v>
       </c>
       <c r="K29" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L29" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M29" s="43"/>
       <c r="N29" s="44" t="str" cm="1">
@@ -3631,25 +3638,25 @@
         <v>#</v>
       </c>
       <c r="O29" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_DiveRelease:CurrentState:Dive</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F30" s="44" t="str" cm="1">
         <f t="array" ref="F30">IFERROR(
@@ -3673,10 +3680,10 @@
         <v>Equal</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H30" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I30" s="43"/>
       <c r="J30" s="44" t="str" cm="1">
@@ -3701,10 +3708,10 @@
         <v>#</v>
       </c>
       <c r="K30" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L30" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M30" s="43"/>
       <c r="N30" s="44" t="str" cm="1">
@@ -3729,37 +3736,37 @@
         <v>#</v>
       </c>
       <c r="O30" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="46" t="str">
         <f>B31&amp;":"&amp;IF(ISBLANK(D31),H31&amp;":"&amp;K31,D31&amp;":"&amp;G31)</f>
         <v>Input_Command:Player_WallClimb:CurrentState:Move</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D31" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="48" t="s">
-        <v>64</v>
-      </c>
       <c r="I31" s="49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J31" s="50" t="str" cm="1">
         <f t="array" ref="J31">IFERROR(
@@ -3786,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="48" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M31" s="49"/>
       <c r="N31" s="50" t="str" cm="1">
@@ -3811,37 +3818,37 @@
         <v>#</v>
       </c>
       <c r="O31" s="47" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="46" t="str">
         <f>B32&amp;":"&amp;IF(ISBLANK(D32),H32&amp;":"&amp;K32,D32&amp;":"&amp;G32)</f>
         <v>Input_Command:Player_WallClimb:CurrentState:Move_Crouch</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D32" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="48" t="s">
-        <v>64</v>
-      </c>
       <c r="I32" s="49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J32" s="50" t="str" cm="1">
         <f t="array" ref="J32">IFERROR(
@@ -3868,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="48" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M32" s="49"/>
       <c r="N32" s="50" t="str" cm="1">
@@ -3893,37 +3900,37 @@
         <v>#</v>
       </c>
       <c r="O32" s="47" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="46" t="str">
         <f>B33&amp;":"&amp;IF(ISBLANK(D33),H33&amp;":"&amp;K33,D33&amp;":"&amp;G33)</f>
         <v>Input_Command:Player_WallClimb:CurrentState:Jump</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D33" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="48" t="s">
-        <v>64</v>
-      </c>
       <c r="I33" s="49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J33" s="50" t="str" cm="1">
         <f t="array" ref="J33">IFERROR(
@@ -3950,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="48" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M33" s="49"/>
       <c r="N33" s="50" t="str" cm="1">
@@ -3975,37 +3982,37 @@
         <v>#</v>
       </c>
       <c r="O33" s="47" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="46" t="str">
         <f>B34&amp;":"&amp;IF(ISBLANK(D34),H34&amp;":"&amp;K34,D34&amp;":"&amp;G34)</f>
         <v>Input_Command:Player_WallClimb:CurrentState:DoubleJump</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D34" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="48" t="s">
-        <v>64</v>
-      </c>
       <c r="I34" s="49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J34" s="50" t="str" cm="1">
         <f t="array" ref="J34">IFERROR(
@@ -4032,7 +4039,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="48" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M34" s="49"/>
       <c r="N34" s="50" t="str" cm="1">
@@ -4057,25 +4064,25 @@
         <v>#</v>
       </c>
       <c r="O34" s="47" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="46" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_HangRelease:CurrentState:Hang</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F35" s="50" t="str" cm="1">
         <f t="array" ref="F35">IFERROR(
@@ -4099,10 +4106,10 @@
         <v>Equal</v>
       </c>
       <c r="G35" s="47" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H35" s="48" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I35" s="49"/>
       <c r="J35" s="50" t="str" cm="1">
@@ -4127,10 +4134,10 @@
         <v>#</v>
       </c>
       <c r="K35" s="47" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L35" s="48" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M35" s="49"/>
       <c r="N35" s="50" t="str" cm="1">
@@ -4155,25 +4162,25 @@
         <v>#</v>
       </c>
       <c r="O35" s="47" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_Defence:CurrentState:Idle</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F36" s="8" t="str" cm="1">
         <f t="array" ref="F36">IFERROR(
@@ -4197,10 +4204,10 @@
         <v>Equal</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="8" t="str" cm="1">
@@ -4225,10 +4232,10 @@
         <v>#</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="8" t="str" cm="1">
@@ -4253,25 +4260,25 @@
         <v>#</v>
       </c>
       <c r="O36" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_DefenceRelease:CurrentState:Guard</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F37" s="8" t="str" cm="1">
         <f t="array" ref="F37">IFERROR(
@@ -4295,10 +4302,10 @@
         <v>Equal</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="8" t="str" cm="1">
@@ -4323,10 +4330,10 @@
         <v>#</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="8" t="str" cm="1">
@@ -4351,25 +4358,25 @@
         <v>#</v>
       </c>
       <c r="O37" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_Crouch:CurrentState:Idle</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F38" s="8" t="str" cm="1">
         <f t="array" ref="F38">IFERROR(
@@ -4393,10 +4400,10 @@
         <v>Equal</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I38" s="13"/>
       <c r="J38" s="8" t="str" cm="1">
@@ -4421,10 +4428,10 @@
         <v>#</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="8" t="str" cm="1">
@@ -4449,25 +4456,25 @@
         <v>#</v>
       </c>
       <c r="O38" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_Crouch:CurrentState:Move</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F39" s="8" t="str" cm="1">
         <f t="array" ref="F39">IFERROR(
@@ -4491,10 +4498,10 @@
         <v>Equal</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I39" s="13"/>
       <c r="J39" s="8" t="str" cm="1">
@@ -4519,10 +4526,10 @@
         <v>#</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="8" t="str" cm="1">
@@ -4547,25 +4554,25 @@
         <v>#</v>
       </c>
       <c r="O39" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_Crouch:CurrentState:Idle_Crouch</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F40" s="8" t="str" cm="1">
         <f t="array" ref="F40">IFERROR(
@@ -4589,10 +4596,10 @@
         <v>Equal</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="8" t="str" cm="1">
@@ -4617,10 +4624,10 @@
         <v>#</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="8" t="str" cm="1">
@@ -4645,25 +4652,25 @@
         <v>#</v>
       </c>
       <c r="O40" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_Crouch:CurrentState:Move_Crouch</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F41" s="8" t="str" cm="1">
         <f t="array" ref="F41">IFERROR(
@@ -4687,10 +4694,10 @@
         <v>Equal</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="8" t="str" cm="1">
@@ -4715,10 +4722,10 @@
         <v>#</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="8" t="str" cm="1">
@@ -4743,25 +4750,25 @@
         <v>#</v>
       </c>
       <c r="O41" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_CrouchRelease:CurrentState:Guard</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F42" s="8" t="str" cm="1">
         <f t="array" ref="F42">IFERROR(
@@ -4785,10 +4792,10 @@
         <v>Equal</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I42" s="13"/>
       <c r="J42" s="8" t="str" cm="1">
@@ -4813,10 +4820,10 @@
         <v>#</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="8" t="str" cm="1">
@@ -4841,25 +4848,25 @@
         <v>#</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="22" t="str">
         <f t="shared" ref="A43:A50" si="1">B43&amp;":"&amp;IF(ISBLANK(D43),H43&amp;":"&amp;K43,D43&amp;":"&amp;G43)</f>
         <v>Input_Command:Player_Blink:CurrentState:Idle</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F43" s="26" t="str" cm="1">
         <f t="array" ref="F43">IFERROR(
@@ -4883,10 +4890,10 @@
         <v>Equal</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I43" s="25"/>
       <c r="J43" s="26" t="str" cm="1">
@@ -4911,10 +4918,10 @@
         <v>#</v>
       </c>
       <c r="K43" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L43" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M43" s="25"/>
       <c r="N43" s="26" t="str" cm="1">
@@ -4939,25 +4946,25 @@
         <v>#</v>
       </c>
       <c r="O43" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Input_Command:Player_Blink:CurrentState:Idle_Crouch</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F44" s="26" t="str" cm="1">
         <f t="array" ref="F44">IFERROR(
@@ -4981,10 +4988,10 @@
         <v>Equal</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I44" s="25"/>
       <c r="J44" s="26" t="str" cm="1">
@@ -5009,10 +5016,10 @@
         <v>#</v>
       </c>
       <c r="K44" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L44" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M44" s="25"/>
       <c r="N44" s="26" t="str" cm="1">
@@ -5037,25 +5044,25 @@
         <v>#</v>
       </c>
       <c r="O44" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Input_Command:Player_Blink:CurrentState:Move</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F45" s="26" t="str" cm="1">
         <f t="array" ref="F45">IFERROR(
@@ -5079,10 +5086,10 @@
         <v>Equal</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I45" s="25"/>
       <c r="J45" s="26" t="str" cm="1">
@@ -5107,10 +5114,10 @@
         <v>#</v>
       </c>
       <c r="K45" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L45" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M45" s="25"/>
       <c r="N45" s="26" t="str" cm="1">
@@ -5135,25 +5142,25 @@
         <v>#</v>
       </c>
       <c r="O45" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Input_Command:Player_Blink:CurrentState:Move_Crouch</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F46" s="26" t="str" cm="1">
         <f t="array" ref="F46">IFERROR(
@@ -5177,10 +5184,10 @@
         <v>Equal</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I46" s="25"/>
       <c r="J46" s="26" t="str" cm="1">
@@ -5205,10 +5212,10 @@
         <v>#</v>
       </c>
       <c r="K46" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L46" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M46" s="25"/>
       <c r="N46" s="26" t="str" cm="1">
@@ -5233,25 +5240,25 @@
         <v>#</v>
       </c>
       <c r="O46" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Input_Command:Player_Blink:CurrentState:Jump</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F47" s="26" t="str" cm="1">
         <f t="array" ref="F47">IFERROR(
@@ -5275,10 +5282,10 @@
         <v>Equal</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I47" s="25"/>
       <c r="J47" s="26" t="str" cm="1">
@@ -5303,10 +5310,10 @@
         <v>#</v>
       </c>
       <c r="K47" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L47" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M47" s="25"/>
       <c r="N47" s="26" t="str" cm="1">
@@ -5331,25 +5338,25 @@
         <v>#</v>
       </c>
       <c r="O47" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Input_Command:Player_Blink:CurrentState:DoubleJump</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F48" s="26" t="str" cm="1">
         <f t="array" ref="F48">IFERROR(
@@ -5373,10 +5380,10 @@
         <v>Equal</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I48" s="25"/>
       <c r="J48" s="26" t="str" cm="1">
@@ -5401,10 +5408,10 @@
         <v>#</v>
       </c>
       <c r="K48" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L48" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M48" s="25"/>
       <c r="N48" s="26" t="str" cm="1">
@@ -5429,25 +5436,25 @@
         <v>#</v>
       </c>
       <c r="O48" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Input_Command:Player_Blink:CurrentState:Hang</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F49" s="26" t="str" cm="1">
         <f t="array" ref="F49">IFERROR(
@@ -5471,10 +5478,10 @@
         <v>Equal</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I49" s="25"/>
       <c r="J49" s="26" t="str" cm="1">
@@ -5499,10 +5506,10 @@
         <v>#</v>
       </c>
       <c r="K49" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L49" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M49" s="25"/>
       <c r="N49" s="26" t="str" cm="1">
@@ -5527,25 +5534,25 @@
         <v>#</v>
       </c>
       <c r="O49" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Input_Command:Player_BlinkCancel:CurrentSkill:Blink</v>
       </c>
       <c r="B50" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>84</v>
-      </c>
       <c r="E50" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F50" s="26" t="str" cm="1">
         <f t="array" ref="F50">IFERROR(
@@ -5569,10 +5576,10 @@
         <v>Equal</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I50" s="25"/>
       <c r="J50" s="26" t="str" cm="1">
@@ -5597,10 +5604,10 @@
         <v>#</v>
       </c>
       <c r="K50" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L50" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M50" s="25"/>
       <c r="N50" s="26" t="str" cm="1">
@@ -5625,25 +5632,25 @@
         <v>#</v>
       </c>
       <c r="O50" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="22" t="str">
         <f t="shared" si="0"/>
         <v>SkillStep:Player_Blink_Lv1:BlinkSkillLevel_Original:1</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F51" s="26" t="str" cm="1">
         <f t="array" ref="F51">IFERROR(
@@ -5670,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I51" s="25"/>
       <c r="J51" s="26" t="str" cm="1">
@@ -5695,10 +5702,10 @@
         <v>#</v>
       </c>
       <c r="K51" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L51" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M51" s="25"/>
       <c r="N51" s="26" t="str" cm="1">
@@ -5723,25 +5730,25 @@
         <v>#</v>
       </c>
       <c r="O51" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="22" t="str">
         <f t="shared" si="0"/>
         <v>SkillStep:Player_Blink_Lv2:BlinkSkillLevel_Original:2</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F52" s="26" t="str" cm="1">
         <f t="array" ref="F52">IFERROR(
@@ -5768,7 +5775,7 @@
         <v>2</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I52" s="25"/>
       <c r="J52" s="26" t="str" cm="1">
@@ -5793,10 +5800,10 @@
         <v>#</v>
       </c>
       <c r="K52" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L52" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M52" s="25"/>
       <c r="N52" s="26" t="str" cm="1">
@@ -5821,25 +5828,25 @@
         <v>#</v>
       </c>
       <c r="O52" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_Interaction:CurrentState:Idle</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F53" s="8" t="str" cm="1">
         <f t="array" ref="F53">IFERROR(
@@ -5863,13 +5870,13 @@
         <v>Equal</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J53" s="8" t="str" cm="1">
         <f t="array" ref="J53">IFERROR(
@@ -5896,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M53" s="13"/>
       <c r="N53" s="8" t="str" cm="1">
@@ -5921,25 +5928,25 @@
         <v>#</v>
       </c>
       <c r="O53" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_Interaction:CurrentState:Move</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F54" s="8" t="str" cm="1">
         <f t="array" ref="F54">IFERROR(
@@ -5963,13 +5970,13 @@
         <v>Equal</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J54" s="8" t="str" cm="1">
         <f t="array" ref="J54">IFERROR(
@@ -5996,7 +6003,7 @@
         <v>1</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M54" s="13"/>
       <c r="N54" s="8" t="str" cm="1">
@@ -6021,25 +6028,25 @@
         <v>#</v>
       </c>
       <c r="O54" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_NormalAttack_1:CurrentState:Idle</v>
       </c>
       <c r="B55" s="41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D55" s="42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F55" s="44" t="str" cm="1">
         <f t="array" ref="F55">IFERROR(
@@ -6063,10 +6070,10 @@
         <v>Equal</v>
       </c>
       <c r="G55" s="41" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H55" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I55" s="43"/>
       <c r="J55" s="44" t="str" cm="1">
@@ -6091,10 +6098,10 @@
         <v>#</v>
       </c>
       <c r="K55" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L55" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M55" s="43"/>
       <c r="N55" s="44" t="str" cm="1">
@@ -6119,25 +6126,25 @@
         <v>#</v>
       </c>
       <c r="O55" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_NormalAttack_1:CurrentState:Idle_Crouch</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D56" s="42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F56" s="44" t="str" cm="1">
         <f t="array" ref="F56">IFERROR(
@@ -6161,10 +6168,10 @@
         <v>Equal</v>
       </c>
       <c r="G56" s="41" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H56" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I56" s="43"/>
       <c r="J56" s="44" t="str" cm="1">
@@ -6189,10 +6196,10 @@
         <v>#</v>
       </c>
       <c r="K56" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L56" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M56" s="43"/>
       <c r="N56" s="44" t="str" cm="1">
@@ -6217,25 +6224,25 @@
         <v>#</v>
       </c>
       <c r="O56" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_NormalAttack_1:CurrentState:Move</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E57" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F57" s="44" t="str" cm="1">
         <f t="array" ref="F57">IFERROR(
@@ -6259,10 +6266,10 @@
         <v>Equal</v>
       </c>
       <c r="G57" s="41" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H57" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I57" s="43"/>
       <c r="J57" s="44" t="str" cm="1">
@@ -6287,10 +6294,10 @@
         <v>#</v>
       </c>
       <c r="K57" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L57" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M57" s="43"/>
       <c r="N57" s="44" t="str" cm="1">
@@ -6315,25 +6322,25 @@
         <v>#</v>
       </c>
       <c r="O57" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_NormalAttack_1:CurrentState:Move_Crouch</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C58" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F58" s="44" t="str" cm="1">
         <f t="array" ref="F58">IFERROR(
@@ -6357,10 +6364,10 @@
         <v>Equal</v>
       </c>
       <c r="G58" s="41" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H58" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I58" s="43"/>
       <c r="J58" s="44" t="str" cm="1">
@@ -6385,10 +6392,10 @@
         <v>#</v>
       </c>
       <c r="K58" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L58" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M58" s="43"/>
       <c r="N58" s="44" t="str" cm="1">
@@ -6413,25 +6420,25 @@
         <v>#</v>
       </c>
       <c r="O58" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_NormalAttack_1:CurrentState:Jump</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C59" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D59" s="42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F59" s="44" t="str" cm="1">
         <f t="array" ref="F59">IFERROR(
@@ -6455,10 +6462,10 @@
         <v>Equal</v>
       </c>
       <c r="G59" s="41" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H59" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I59" s="43"/>
       <c r="J59" s="44" t="str" cm="1">
@@ -6483,10 +6490,10 @@
         <v>#</v>
       </c>
       <c r="K59" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L59" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M59" s="43"/>
       <c r="N59" s="44" t="str" cm="1">
@@ -6511,25 +6518,25 @@
         <v>#</v>
       </c>
       <c r="O59" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_NormalAttack_1:CurrentState:DoubleJump</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C60" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D60" s="42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E60" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F60" s="44" t="str" cm="1">
         <f t="array" ref="F60">IFERROR(
@@ -6553,10 +6560,10 @@
         <v>Equal</v>
       </c>
       <c r="G60" s="41" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H60" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I60" s="43"/>
       <c r="J60" s="44" t="str" cm="1">
@@ -6581,10 +6588,10 @@
         <v>#</v>
       </c>
       <c r="K60" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L60" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M60" s="43"/>
       <c r="N60" s="44" t="str" cm="1">
@@ -6609,25 +6616,25 @@
         <v>#</v>
       </c>
       <c r="O60" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="52" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_NormalAttack_2:CurrentState:Idle</v>
       </c>
       <c r="B61" s="53" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C61" s="54" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D61" s="54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E61" s="55" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F61" s="56" t="str" cm="1">
         <f t="array" ref="F61">IFERROR(
@@ -6651,10 +6658,10 @@
         <v>Equal</v>
       </c>
       <c r="G61" s="53" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H61" s="54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I61" s="55"/>
       <c r="J61" s="56" t="str" cm="1">
@@ -6679,10 +6686,10 @@
         <v>#</v>
       </c>
       <c r="K61" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L61" s="54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M61" s="55"/>
       <c r="N61" s="56" t="str" cm="1">
@@ -6707,25 +6714,25 @@
         <v>#</v>
       </c>
       <c r="O61" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="52" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_NormalAttack_2:CurrentState:Idle_Crouch</v>
       </c>
       <c r="B62" s="53" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C62" s="54" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D62" s="54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E62" s="55" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F62" s="56" t="str" cm="1">
         <f t="array" ref="F62">IFERROR(
@@ -6749,10 +6756,10 @@
         <v>Equal</v>
       </c>
       <c r="G62" s="53" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H62" s="54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I62" s="55"/>
       <c r="J62" s="56" t="str" cm="1">
@@ -6777,10 +6784,10 @@
         <v>#</v>
       </c>
       <c r="K62" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L62" s="54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M62" s="55"/>
       <c r="N62" s="56" t="str" cm="1">
@@ -6805,25 +6812,25 @@
         <v>#</v>
       </c>
       <c r="O62" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="52" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_NormalAttack_2:CurrentState:Move</v>
       </c>
       <c r="B63" s="53" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C63" s="54" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D63" s="54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E63" s="55" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F63" s="56" t="str" cm="1">
         <f t="array" ref="F63">IFERROR(
@@ -6847,10 +6854,10 @@
         <v>Equal</v>
       </c>
       <c r="G63" s="53" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H63" s="54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I63" s="55"/>
       <c r="J63" s="56" t="str" cm="1">
@@ -6875,10 +6882,10 @@
         <v>#</v>
       </c>
       <c r="K63" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L63" s="54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M63" s="55"/>
       <c r="N63" s="56" t="str" cm="1">
@@ -6903,25 +6910,25 @@
         <v>#</v>
       </c>
       <c r="O63" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="52" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_NormalAttack_2:CurrentState:Move_Crouch</v>
       </c>
       <c r="B64" s="53" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C64" s="54" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D64" s="54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E64" s="55" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F64" s="56" t="str" cm="1">
         <f t="array" ref="F64">IFERROR(
@@ -6945,10 +6952,10 @@
         <v>Equal</v>
       </c>
       <c r="G64" s="53" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H64" s="54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I64" s="55"/>
       <c r="J64" s="56" t="str" cm="1">
@@ -6973,10 +6980,10 @@
         <v>#</v>
       </c>
       <c r="K64" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L64" s="54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M64" s="55"/>
       <c r="N64" s="56" t="str" cm="1">
@@ -7001,25 +7008,25 @@
         <v>#</v>
       </c>
       <c r="O64" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="52" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_NormalAttack_2:CurrentState:Jump</v>
       </c>
       <c r="B65" s="53" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C65" s="54" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D65" s="54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E65" s="55" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F65" s="56" t="str" cm="1">
         <f t="array" ref="F65">IFERROR(
@@ -7043,10 +7050,10 @@
         <v>Equal</v>
       </c>
       <c r="G65" s="53" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H65" s="54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I65" s="55"/>
       <c r="J65" s="56" t="str" cm="1">
@@ -7071,10 +7078,10 @@
         <v>#</v>
       </c>
       <c r="K65" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L65" s="54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M65" s="55"/>
       <c r="N65" s="56" t="str" cm="1">
@@ -7099,25 +7106,25 @@
         <v>#</v>
       </c>
       <c r="O65" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="52" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_NormalAttack_2:CurrentState:DoubleJump</v>
       </c>
       <c r="B66" s="53" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C66" s="54" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D66" s="54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E66" s="55" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F66" s="56" t="str" cm="1">
         <f t="array" ref="F66">IFERROR(
@@ -7141,10 +7148,10 @@
         <v>Equal</v>
       </c>
       <c r="G66" s="53" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H66" s="54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I66" s="55"/>
       <c r="J66" s="56" t="str" cm="1">
@@ -7169,10 +7176,10 @@
         <v>#</v>
       </c>
       <c r="K66" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L66" s="54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M66" s="55"/>
       <c r="N66" s="56" t="str" cm="1">
@@ -7197,25 +7204,25 @@
         <v>#</v>
       </c>
       <c r="O66" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_NormalAttack_3:CurrentState:Idle</v>
       </c>
       <c r="B67" s="41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C67" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D67" s="42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E67" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F67" s="44" t="str" cm="1">
         <f t="array" ref="F67">IFERROR(
@@ -7239,10 +7246,10 @@
         <v>Equal</v>
       </c>
       <c r="G67" s="41" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H67" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I67" s="43"/>
       <c r="J67" s="44" t="str" cm="1">
@@ -7267,10 +7274,10 @@
         <v>#</v>
       </c>
       <c r="K67" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L67" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M67" s="43"/>
       <c r="N67" s="44" t="str" cm="1">
@@ -7295,25 +7302,25 @@
         <v>#</v>
       </c>
       <c r="O67" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_NormalAttack_3:CurrentState:Idle_Crouch</v>
       </c>
       <c r="B68" s="41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D68" s="42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E68" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F68" s="44" t="str" cm="1">
         <f t="array" ref="F68">IFERROR(
@@ -7337,10 +7344,10 @@
         <v>Equal</v>
       </c>
       <c r="G68" s="41" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H68" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I68" s="43"/>
       <c r="J68" s="44" t="str" cm="1">
@@ -7365,10 +7372,10 @@
         <v>#</v>
       </c>
       <c r="K68" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L68" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M68" s="43"/>
       <c r="N68" s="44" t="str" cm="1">
@@ -7393,25 +7400,25 @@
         <v>#</v>
       </c>
       <c r="O68" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_NormalAttack_3:CurrentState:Move</v>
       </c>
       <c r="B69" s="41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D69" s="42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E69" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F69" s="44" t="str" cm="1">
         <f t="array" ref="F69">IFERROR(
@@ -7435,10 +7442,10 @@
         <v>Equal</v>
       </c>
       <c r="G69" s="41" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H69" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I69" s="43"/>
       <c r="J69" s="44" t="str" cm="1">
@@ -7463,10 +7470,10 @@
         <v>#</v>
       </c>
       <c r="K69" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L69" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M69" s="43"/>
       <c r="N69" s="44" t="str" cm="1">
@@ -7491,25 +7498,25 @@
         <v>#</v>
       </c>
       <c r="O69" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_NormalAttack_3:CurrentState:Move_Crouch</v>
       </c>
       <c r="B70" s="41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D70" s="42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E70" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F70" s="44" t="str" cm="1">
         <f t="array" ref="F70">IFERROR(
@@ -7533,10 +7540,10 @@
         <v>Equal</v>
       </c>
       <c r="G70" s="41" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H70" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I70" s="43"/>
       <c r="J70" s="44" t="str" cm="1">
@@ -7561,10 +7568,10 @@
         <v>#</v>
       </c>
       <c r="K70" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L70" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M70" s="43"/>
       <c r="N70" s="44" t="str" cm="1">
@@ -7589,25 +7596,25 @@
         <v>#</v>
       </c>
       <c r="O70" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_NormalAttack_3:CurrentState:Jump</v>
       </c>
       <c r="B71" s="41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D71" s="42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E71" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F71" s="44" t="str" cm="1">
         <f t="array" ref="F71">IFERROR(
@@ -7631,10 +7638,10 @@
         <v>Equal</v>
       </c>
       <c r="G71" s="41" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H71" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I71" s="43"/>
       <c r="J71" s="44" t="str" cm="1">
@@ -7659,10 +7666,10 @@
         <v>#</v>
       </c>
       <c r="K71" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L71" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M71" s="43"/>
       <c r="N71" s="44" t="str" cm="1">
@@ -7687,25 +7694,25 @@
         <v>#</v>
       </c>
       <c r="O71" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_NormalAttack_3:CurrentState:DoubleJump</v>
       </c>
       <c r="B72" s="41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D72" s="42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E72" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F72" s="44" t="str" cm="1">
         <f t="array" ref="F72">IFERROR(
@@ -7729,10 +7736,10 @@
         <v>Equal</v>
       </c>
       <c r="G72" s="41" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H72" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I72" s="43"/>
       <c r="J72" s="44" t="str" cm="1">
@@ -7757,10 +7764,10 @@
         <v>#</v>
       </c>
       <c r="K72" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L72" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M72" s="43"/>
       <c r="N72" s="44" t="str" cm="1">
@@ -7785,25 +7792,25 @@
         <v>#</v>
       </c>
       <c r="O72" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="52" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_ChargeAttack_1:CurrentState:Idle</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C73" s="54" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D73" s="54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E73" s="55" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F73" s="56" t="str" cm="1">
         <f t="array" ref="F73">IFERROR(
@@ -7827,10 +7834,10 @@
         <v>Equal</v>
       </c>
       <c r="G73" s="53" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H73" s="54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I73" s="55"/>
       <c r="J73" s="56" t="str" cm="1">
@@ -7855,10 +7862,10 @@
         <v>#</v>
       </c>
       <c r="K73" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L73" s="54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M73" s="55"/>
       <c r="N73" s="56" t="str" cm="1">
@@ -7883,25 +7890,25 @@
         <v>#</v>
       </c>
       <c r="O73" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="52" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_ChargeAttack_1:CurrentState:Idle_Crouch</v>
       </c>
       <c r="B74" s="53" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="54" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D74" s="54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E74" s="55" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F74" s="56" t="str" cm="1">
         <f t="array" ref="F74">IFERROR(
@@ -7925,10 +7932,10 @@
         <v>Equal</v>
       </c>
       <c r="G74" s="53" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H74" s="54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I74" s="55"/>
       <c r="J74" s="56" t="str" cm="1">
@@ -7953,10 +7960,10 @@
         <v>#</v>
       </c>
       <c r="K74" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L74" s="54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M74" s="55"/>
       <c r="N74" s="56" t="str" cm="1">
@@ -7981,25 +7988,25 @@
         <v>#</v>
       </c>
       <c r="O74" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="52" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_ChargeAttack_1:CurrentState:Move</v>
       </c>
       <c r="B75" s="53" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C75" s="54" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D75" s="54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E75" s="55" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F75" s="56" t="str" cm="1">
         <f t="array" ref="F75">IFERROR(
@@ -8023,10 +8030,10 @@
         <v>Equal</v>
       </c>
       <c r="G75" s="53" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H75" s="54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I75" s="55"/>
       <c r="J75" s="56" t="str" cm="1">
@@ -8051,10 +8058,10 @@
         <v>#</v>
       </c>
       <c r="K75" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L75" s="54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M75" s="55"/>
       <c r="N75" s="56" t="str" cm="1">
@@ -8079,25 +8086,25 @@
         <v>#</v>
       </c>
       <c r="O75" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="52" t="str">
         <f t="shared" ref="A76:A102" si="2">B76&amp;":"&amp;IF(ISBLANK(D76),H76&amp;":"&amp;K76,D76&amp;":"&amp;G76)</f>
         <v>Input_Command:Player_ChargeAttack_1:CurrentState:Move_Crouch</v>
       </c>
       <c r="B76" s="53" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C76" s="54" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D76" s="54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E76" s="55" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F76" s="56" t="str" cm="1">
         <f t="array" ref="F76">IFERROR(
@@ -8121,10 +8128,10 @@
         <v>Equal</v>
       </c>
       <c r="G76" s="53" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H76" s="54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I76" s="55"/>
       <c r="J76" s="56" t="str" cm="1">
@@ -8149,10 +8156,10 @@
         <v>#</v>
       </c>
       <c r="K76" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L76" s="54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M76" s="55"/>
       <c r="N76" s="56" t="str" cm="1">
@@ -8177,25 +8184,25 @@
         <v>#</v>
       </c>
       <c r="O76" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="52" t="str">
         <f t="shared" si="2"/>
         <v>Input_Command:Player_ChargeAttack_1:CurrentState:Jump</v>
       </c>
       <c r="B77" s="53" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C77" s="54" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D77" s="54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E77" s="55" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F77" s="56" t="str" cm="1">
         <f t="array" ref="F77">IFERROR(
@@ -8219,10 +8226,10 @@
         <v>Equal</v>
       </c>
       <c r="G77" s="53" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H77" s="54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I77" s="55"/>
       <c r="J77" s="56" t="str" cm="1">
@@ -8247,10 +8254,10 @@
         <v>#</v>
       </c>
       <c r="K77" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L77" s="54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M77" s="55"/>
       <c r="N77" s="56" t="str" cm="1">
@@ -8275,25 +8282,25 @@
         <v>#</v>
       </c>
       <c r="O77" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="52" t="str">
         <f t="shared" si="2"/>
         <v>Input_Command:Player_ChargeAttack_1:CurrentState:DoubleJump</v>
       </c>
       <c r="B78" s="53" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C78" s="54" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D78" s="54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E78" s="55" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F78" s="56" t="str" cm="1">
         <f t="array" ref="F78">IFERROR(
@@ -8317,10 +8324,10 @@
         <v>Equal</v>
       </c>
       <c r="G78" s="53" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H78" s="54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I78" s="55"/>
       <c r="J78" s="56" t="str" cm="1">
@@ -8345,10 +8352,10 @@
         <v>#</v>
       </c>
       <c r="K78" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L78" s="54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M78" s="55"/>
       <c r="N78" s="56" t="str" cm="1">
@@ -8373,25 +8380,25 @@
         <v>#</v>
       </c>
       <c r="O78" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="64" t="str">
         <f t="shared" si="2"/>
         <v>Input_Command:Player_BackAssaultAttack:CurrentState:Idle</v>
       </c>
       <c r="B79" s="65" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C79" s="66" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D79" s="66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E79" s="67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F79" s="68" t="str" cm="1">
         <f t="array" ref="F79">IFERROR(
@@ -8415,22 +8422,22 @@
         <v>Equal</v>
       </c>
       <c r="G79" s="65" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H79" s="66" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I79" s="67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J79" s="68" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K79" s="65" t="b">
         <v>1</v>
       </c>
       <c r="L79" s="66" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M79" s="67"/>
       <c r="N79" s="68" t="str" cm="1">
@@ -8455,25 +8462,25 @@
         <v>#</v>
       </c>
       <c r="O79" s="65" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="64" t="str">
         <f t="shared" si="2"/>
         <v>Input_Command:Player_BackAssaultAttack:CurrentState:Idle_Crouch</v>
       </c>
       <c r="B80" s="65" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C80" s="66" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D80" s="66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E80" s="67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F80" s="68" t="str" cm="1">
         <f t="array" ref="F80">IFERROR(
@@ -8497,22 +8504,22 @@
         <v>Equal</v>
       </c>
       <c r="G80" s="65" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H80" s="66" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I80" s="67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J80" s="68" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K80" s="65" t="b">
         <v>1</v>
       </c>
       <c r="L80" s="66" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M80" s="67"/>
       <c r="N80" s="68" t="str" cm="1">
@@ -8537,25 +8544,25 @@
         <v>#</v>
       </c>
       <c r="O80" s="65" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="64" t="str">
         <f t="shared" si="2"/>
         <v>Input_Command:Player_BackAssaultAttack:CurrentState:Move</v>
       </c>
       <c r="B81" s="65" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C81" s="66" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D81" s="66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E81" s="67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F81" s="68" t="str" cm="1">
         <f t="array" ref="F81">IFERROR(
@@ -8579,22 +8586,22 @@
         <v>Equal</v>
       </c>
       <c r="G81" s="65" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H81" s="66" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I81" s="67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J81" s="68" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K81" s="65" t="b">
         <v>1</v>
       </c>
       <c r="L81" s="66" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M81" s="67"/>
       <c r="N81" s="68" t="str" cm="1">
@@ -8619,25 +8626,25 @@
         <v>#</v>
       </c>
       <c r="O81" s="65" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="64" t="str">
         <f t="shared" si="2"/>
         <v>Input_Command:Player_BackAssaultAttack:CurrentState:Move_Crouch</v>
       </c>
       <c r="B82" s="65" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C82" s="66" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D82" s="66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E82" s="67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F82" s="68" t="str" cm="1">
         <f t="array" ref="F82">IFERROR(
@@ -8661,22 +8668,22 @@
         <v>Equal</v>
       </c>
       <c r="G82" s="65" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H82" s="66" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I82" s="67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J82" s="68" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K82" s="65" t="b">
         <v>1</v>
       </c>
       <c r="L82" s="66" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M82" s="67"/>
       <c r="N82" s="68" t="str" cm="1">
@@ -8701,25 +8708,25 @@
         <v>#</v>
       </c>
       <c r="O82" s="65" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="83" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="64" t="str">
         <f t="shared" si="2"/>
         <v>Input_Command:Player_BackAssaultAttack:CurrentState:Jump</v>
       </c>
       <c r="B83" s="65" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C83" s="66" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D83" s="66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E83" s="67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F83" s="68" t="str" cm="1">
         <f t="array" ref="F83">IFERROR(
@@ -8743,22 +8750,22 @@
         <v>Equal</v>
       </c>
       <c r="G83" s="65" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H83" s="66" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I83" s="67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J83" s="68" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K83" s="65" t="b">
         <v>1</v>
       </c>
       <c r="L83" s="66" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M83" s="67"/>
       <c r="N83" s="68" t="str" cm="1">
@@ -8783,25 +8790,25 @@
         <v>#</v>
       </c>
       <c r="O83" s="65" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="64" t="str">
         <f t="shared" si="2"/>
         <v>Input_Command:Player_BackAssaultAttack:CurrentState:DoubleJump</v>
       </c>
       <c r="B84" s="65" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C84" s="66" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D84" s="66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E84" s="67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F84" s="68" t="str" cm="1">
         <f t="array" ref="F84">IFERROR(
@@ -8825,22 +8832,22 @@
         <v>Equal</v>
       </c>
       <c r="G84" s="65" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H84" s="66" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I84" s="67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J84" s="68" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K84" s="65" t="b">
         <v>1</v>
       </c>
       <c r="L84" s="66" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M84" s="67"/>
       <c r="N84" s="68" t="str" cm="1">
@@ -8865,25 +8872,25 @@
         <v>#</v>
       </c>
       <c r="O84" s="65" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="58" t="str">
         <f t="shared" si="2"/>
         <v>Input_Command:Player_HangAssaultAttack:CurrentState:Idle</v>
       </c>
       <c r="B85" s="59" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C85" s="60" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D85" s="60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E85" s="61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F85" s="62" t="str" cm="1">
         <f t="array" ref="F85">IFERROR(
@@ -8907,22 +8914,22 @@
         <v>Equal</v>
       </c>
       <c r="G85" s="59" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H85" s="60" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I85" s="61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J85" s="62" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K85" s="59" t="b">
         <v>1</v>
       </c>
       <c r="L85" s="60" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M85" s="61"/>
       <c r="N85" s="62" t="str" cm="1">
@@ -8947,25 +8954,25 @@
         <v>#</v>
       </c>
       <c r="O85" s="59" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="58" t="str">
         <f t="shared" si="2"/>
         <v>Input_Command:Player_HangAssaultAttack:CurrentState:Idle_Crouch</v>
       </c>
       <c r="B86" s="59" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C86" s="60" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D86" s="60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E86" s="61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F86" s="62" t="str" cm="1">
         <f t="array" ref="F86">IFERROR(
@@ -8989,22 +8996,22 @@
         <v>Equal</v>
       </c>
       <c r="G86" s="59" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H86" s="60" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I86" s="61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J86" s="62" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K86" s="59" t="b">
         <v>1</v>
       </c>
       <c r="L86" s="60" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M86" s="61"/>
       <c r="N86" s="62" t="str" cm="1">
@@ -9029,25 +9036,25 @@
         <v>#</v>
       </c>
       <c r="O86" s="59" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="58" t="str">
         <f t="shared" si="2"/>
         <v>Input_Command:Player_HangAssaultAttack:CurrentState:Move</v>
       </c>
       <c r="B87" s="59" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C87" s="60" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D87" s="60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E87" s="61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F87" s="62" t="str" cm="1">
         <f t="array" ref="F87">IFERROR(
@@ -9071,22 +9078,22 @@
         <v>Equal</v>
       </c>
       <c r="G87" s="59" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H87" s="60" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I87" s="61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J87" s="62" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K87" s="59" t="b">
         <v>1</v>
       </c>
       <c r="L87" s="60" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M87" s="61"/>
       <c r="N87" s="62" t="str" cm="1">
@@ -9111,25 +9118,25 @@
         <v>#</v>
       </c>
       <c r="O87" s="59" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="58" t="str">
         <f t="shared" si="2"/>
         <v>Input_Command:Player_HangAssaultAttack:CurrentState:Move_Crouch</v>
       </c>
       <c r="B88" s="59" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C88" s="60" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D88" s="60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E88" s="61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F88" s="62" t="str" cm="1">
         <f t="array" ref="F88">IFERROR(
@@ -9153,22 +9160,22 @@
         <v>Equal</v>
       </c>
       <c r="G88" s="59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H88" s="60" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I88" s="61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J88" s="62" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K88" s="59" t="b">
         <v>1</v>
       </c>
       <c r="L88" s="60" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M88" s="61"/>
       <c r="N88" s="62" t="str" cm="1">
@@ -9193,25 +9200,25 @@
         <v>#</v>
       </c>
       <c r="O88" s="59" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="58" t="str">
         <f t="shared" si="2"/>
         <v>Input_Command:Player_HangAssaultAttack:CurrentState:Jump</v>
       </c>
       <c r="B89" s="59" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C89" s="60" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D89" s="60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E89" s="61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F89" s="62" t="str" cm="1">
         <f t="array" ref="F89">IFERROR(
@@ -9235,22 +9242,22 @@
         <v>Equal</v>
       </c>
       <c r="G89" s="59" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H89" s="60" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I89" s="61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J89" s="62" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K89" s="59" t="b">
         <v>1</v>
       </c>
       <c r="L89" s="60" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M89" s="61"/>
       <c r="N89" s="62" t="str" cm="1">
@@ -9275,25 +9282,25 @@
         <v>#</v>
       </c>
       <c r="O89" s="59" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="58" t="str">
         <f t="shared" si="2"/>
         <v>Input_Command:Player_HangAssaultAttack:CurrentState:DoubleJump</v>
       </c>
       <c r="B90" s="59" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C90" s="60" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D90" s="60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E90" s="61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F90" s="62" t="str" cm="1">
         <f t="array" ref="F90">IFERROR(
@@ -9317,22 +9324,22 @@
         <v>Equal</v>
       </c>
       <c r="G90" s="59" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H90" s="60" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I90" s="61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J90" s="62" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K90" s="59" t="b">
         <v>1</v>
       </c>
       <c r="L90" s="60" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M90" s="61"/>
       <c r="N90" s="62" t="str" cm="1">
@@ -9357,25 +9364,25 @@
         <v>#</v>
       </c>
       <c r="O90" s="59" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="91" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="64" t="str">
         <f t="shared" si="2"/>
         <v>Input_Command:Player_DiveAssaultAttack:CurrentState:Idle</v>
       </c>
       <c r="B91" s="65" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C91" s="66" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D91" s="66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E91" s="67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F91" s="68" t="str" cm="1">
         <f t="array" ref="F91">IFERROR(
@@ -9399,22 +9406,22 @@
         <v>Equal</v>
       </c>
       <c r="G91" s="65" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H91" s="66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I91" s="67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J91" s="68" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K91" s="65" t="b">
         <v>1</v>
       </c>
       <c r="L91" s="66" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M91" s="67"/>
       <c r="N91" s="68" t="str" cm="1">
@@ -9439,25 +9446,25 @@
         <v>#</v>
       </c>
       <c r="O91" s="65" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="64" t="str">
         <f t="shared" si="2"/>
         <v>Input_Command:Player_DiveAssaultAttack:CurrentState:Idle_Crouch</v>
       </c>
       <c r="B92" s="65" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C92" s="66" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D92" s="66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E92" s="67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F92" s="68" t="str" cm="1">
         <f t="array" ref="F92">IFERROR(
@@ -9481,22 +9488,22 @@
         <v>Equal</v>
       </c>
       <c r="G92" s="65" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H92" s="66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I92" s="67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J92" s="68" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K92" s="65" t="b">
         <v>1</v>
       </c>
       <c r="L92" s="66" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M92" s="67"/>
       <c r="N92" s="68" t="str" cm="1">
@@ -9521,25 +9528,25 @@
         <v>#</v>
       </c>
       <c r="O92" s="65" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="93" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="64" t="str">
         <f t="shared" si="2"/>
         <v>Input_Command:Player_DiveAssaultAttack:CurrentState:Move</v>
       </c>
       <c r="B93" s="65" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C93" s="66" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D93" s="66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E93" s="67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F93" s="68" t="str" cm="1">
         <f t="array" ref="F93">IFERROR(
@@ -9563,22 +9570,22 @@
         <v>Equal</v>
       </c>
       <c r="G93" s="65" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H93" s="66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I93" s="67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J93" s="68" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K93" s="65" t="b">
         <v>1</v>
       </c>
       <c r="L93" s="66" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M93" s="67"/>
       <c r="N93" s="68" t="str" cm="1">
@@ -9603,25 +9610,25 @@
         <v>#</v>
       </c>
       <c r="O93" s="65" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="64" t="str">
         <f t="shared" si="2"/>
         <v>Input_Command:Player_DiveAssaultAttack:CurrentState:Move_Crouch</v>
       </c>
       <c r="B94" s="65" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C94" s="66" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D94" s="66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E94" s="67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F94" s="68" t="str" cm="1">
         <f t="array" ref="F94">IFERROR(
@@ -9645,22 +9652,22 @@
         <v>Equal</v>
       </c>
       <c r="G94" s="65" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H94" s="66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I94" s="67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J94" s="68" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K94" s="65" t="b">
         <v>1</v>
       </c>
       <c r="L94" s="66" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M94" s="67"/>
       <c r="N94" s="68" t="str" cm="1">
@@ -9685,25 +9692,25 @@
         <v>#</v>
       </c>
       <c r="O94" s="65" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="64" t="str">
         <f t="shared" si="2"/>
         <v>Input_Command:Player_DiveAssaultAttack:CurrentState:Jump</v>
       </c>
       <c r="B95" s="65" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C95" s="66" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D95" s="66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E95" s="67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F95" s="68" t="str" cm="1">
         <f t="array" ref="F95">IFERROR(
@@ -9727,22 +9734,22 @@
         <v>Equal</v>
       </c>
       <c r="G95" s="65" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H95" s="66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I95" s="67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J95" s="68" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K95" s="65" t="b">
         <v>1</v>
       </c>
       <c r="L95" s="66" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M95" s="67"/>
       <c r="N95" s="68" t="str" cm="1">
@@ -9767,25 +9774,25 @@
         <v>#</v>
       </c>
       <c r="O95" s="65" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="64" t="str">
         <f t="shared" si="2"/>
         <v>Input_Command:Player_DiveAssaultAttack:CurrentState:DoubleJump</v>
       </c>
       <c r="B96" s="65" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C96" s="66" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D96" s="66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E96" s="67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F96" s="68" t="str" cm="1">
         <f t="array" ref="F96">IFERROR(
@@ -9809,22 +9816,22 @@
         <v>Equal</v>
       </c>
       <c r="G96" s="65" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H96" s="66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I96" s="67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J96" s="68" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K96" s="65" t="b">
         <v>1</v>
       </c>
       <c r="L96" s="66" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M96" s="67"/>
       <c r="N96" s="68" t="str" cm="1">
@@ -9849,25 +9856,25 @@
         <v>#</v>
       </c>
       <c r="O96" s="65" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="58" t="str">
         <f t="shared" si="2"/>
         <v>Input_Command:Player_AirAssaultAttack:CurrentState:Idle</v>
       </c>
       <c r="B97" s="59" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C97" s="60" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D97" s="60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E97" s="61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F97" s="62" t="str" cm="1">
         <f t="array" ref="F97">IFERROR(
@@ -9891,22 +9898,22 @@
         <v>Equal</v>
       </c>
       <c r="G97" s="59" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H97" s="60" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I97" s="61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J97" s="62" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K97" s="59" t="b">
         <v>1</v>
       </c>
       <c r="L97" s="60" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M97" s="61"/>
       <c r="N97" s="62" t="str" cm="1">
@@ -9931,25 +9938,25 @@
         <v>#</v>
       </c>
       <c r="O97" s="59" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="58" t="str">
         <f t="shared" si="2"/>
         <v>Input_Command:Player_AirAssaultAttack:CurrentState:Idle_Crouch</v>
       </c>
       <c r="B98" s="59" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C98" s="60" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D98" s="60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E98" s="61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F98" s="62" t="str" cm="1">
         <f t="array" ref="F98">IFERROR(
@@ -9973,22 +9980,22 @@
         <v>Equal</v>
       </c>
       <c r="G98" s="59" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H98" s="60" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I98" s="61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J98" s="62" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K98" s="59" t="b">
         <v>1</v>
       </c>
       <c r="L98" s="60" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M98" s="61"/>
       <c r="N98" s="62" t="str" cm="1">
@@ -10013,25 +10020,25 @@
         <v>#</v>
       </c>
       <c r="O98" s="59" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="58" t="str">
         <f t="shared" si="2"/>
         <v>Input_Command:Player_AirAssaultAttack:CurrentState:Move</v>
       </c>
       <c r="B99" s="59" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C99" s="60" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D99" s="60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E99" s="61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F99" s="62" t="str" cm="1">
         <f t="array" ref="F99">IFERROR(
@@ -10055,22 +10062,22 @@
         <v>Equal</v>
       </c>
       <c r="G99" s="59" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H99" s="60" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I99" s="61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J99" s="62" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K99" s="59" t="b">
         <v>1</v>
       </c>
       <c r="L99" s="60" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M99" s="61"/>
       <c r="N99" s="62" t="str" cm="1">
@@ -10095,25 +10102,25 @@
         <v>#</v>
       </c>
       <c r="O99" s="59" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="58" t="str">
         <f t="shared" si="2"/>
         <v>Input_Command:Player_AirAssaultAttack:CurrentState:Move_Crouch</v>
       </c>
       <c r="B100" s="59" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C100" s="60" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D100" s="60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E100" s="61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F100" s="62" t="str" cm="1">
         <f t="array" ref="F100">IFERROR(
@@ -10137,22 +10144,22 @@
         <v>Equal</v>
       </c>
       <c r="G100" s="59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H100" s="60" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I100" s="61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J100" s="62" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K100" s="59" t="b">
         <v>1</v>
       </c>
       <c r="L100" s="60" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M100" s="61"/>
       <c r="N100" s="62" t="str" cm="1">
@@ -10177,25 +10184,25 @@
         <v>#</v>
       </c>
       <c r="O100" s="59" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="58" t="str">
         <f t="shared" si="2"/>
         <v>Input_Command:Player_AirAssaultAttack:CurrentState:Jump</v>
       </c>
       <c r="B101" s="59" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C101" s="60" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D101" s="60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E101" s="61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F101" s="62" t="str" cm="1">
         <f t="array" ref="F101">IFERROR(
@@ -10219,22 +10226,22 @@
         <v>Equal</v>
       </c>
       <c r="G101" s="59" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H101" s="60" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I101" s="61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J101" s="62" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K101" s="59" t="b">
         <v>1</v>
       </c>
       <c r="L101" s="60" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M101" s="61"/>
       <c r="N101" s="62" t="str" cm="1">
@@ -10259,25 +10266,25 @@
         <v>#</v>
       </c>
       <c r="O101" s="59" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="102" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="58" t="str">
         <f t="shared" si="2"/>
         <v>Input_Command:Player_AirAssaultAttack:CurrentState:DoubleJump</v>
       </c>
       <c r="B102" s="59" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C102" s="60" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D102" s="60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E102" s="61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F102" s="62" t="str" cm="1">
         <f t="array" ref="F102">IFERROR(
@@ -10301,22 +10308,22 @@
         <v>Equal</v>
       </c>
       <c r="G102" s="59" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H102" s="60" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I102" s="61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J102" s="62" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K102" s="59" t="b">
         <v>1</v>
       </c>
       <c r="L102" s="60" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M102" s="61"/>
       <c r="N102" s="62" t="str" cm="1">
@@ -10341,7 +10348,7 @@
         <v>#</v>
       </c>
       <c r="O102" s="59" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
